--- a/public/Template_Excel/informasi_umum.xlsx
+++ b/public/Template_Excel/informasi_umum.xlsx
@@ -101,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,7 +412,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,19 +425,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -455,8 +454,8 @@
       <c r="D2" s="1">
         <v>44185</v>
       </c>
-      <c r="E2" s="2">
-        <v>43850</v>
+      <c r="E2" s="1">
+        <v>44216</v>
       </c>
     </row>
   </sheetData>
